--- a/ig/FSHTransformation2.4/StructureDefinition-ror-accessibility-location.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-accessibility-location.xlsx
@@ -335,7 +335,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://test</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J50-AccessibiliteLieu-ROR/FHIR/JDV-J50-AccessibiliteLieu-ROR</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -676,7 +676,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="90.7890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-accessibility-location.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-accessibility-location.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-accessibility-location</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-accessibility-location</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-accessibility-location.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-accessibility-location.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-accessibility-location</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-accessibility-location</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29</t>
+    <t>2023-02-17T09:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -240,21 +240,21 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
     <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -893,10 +893,10 @@
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -921,7 +921,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -996,7 +996,7 @@
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1099,7 +1099,7 @@
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
@@ -1124,10 +1124,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1201,10 +1201,10 @@
         <v>93</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
@@ -1232,7 +1232,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1305,7 +1305,7 @@
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-accessibility-location.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-accessibility-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:09:31+00:00</t>
+    <t>2023-02-17T09:40:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-accessibility-location.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-accessibility-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:40:52+00:00</t>
+    <t>2023-02-17T11:17:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
